--- a/Evan/Data_Method_4.xlsx
+++ b/Evan/Data_Method_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jg300416\Documents\MATLAB\DoD\Evan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F84879-07AC-4266-AECF-9D23D9A63CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B255A501-5D59-459B-8454-B9928D300E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4155" yWindow="4155" windowWidth="21600" windowHeight="12735" xr2:uid="{DB4D1D40-A8DA-456B-A30C-81169D4C9387}"/>
   </bookViews>
@@ -517,43 +517,43 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="E2">
-        <v>2.9000000000000001E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="F2">
-        <v>3.2000000000000001E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="G2">
-        <v>3.6999999999999998E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="H2">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="I2">
-        <v>2.9000000000000001E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="J2">
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="K2">
-        <v>7.0000000000000007E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="L2">
-        <v>204.94079600000003</v>
+        <v>154.91485595000003</v>
       </c>
       <c r="M2">
-        <v>204.94079600000003</v>
+        <v>154.91485595000003</v>
       </c>
       <c r="N2">
-        <v>42.911529799999997</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>187.75939939999998</v>
+        <v>141.2467958</v>
       </c>
       <c r="P2">
-        <v>264.61029100000002</v>
+        <v>154.91485595000003</v>
       </c>
       <c r="Q2">
-        <v>532.51266595000004</v>
+        <v>486.00006235000001</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -570,31 +570,31 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="E3">
-        <v>5.5E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F3">
-        <v>0.11899999999999999</v>
+        <v>0.05</v>
       </c>
       <c r="G3">
-        <v>0.126</v>
+        <v>0.05</v>
       </c>
       <c r="H3">
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="I3">
-        <v>5.3999999999999999E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="L3">
-        <v>603.759765625</v>
+        <v>498.30245971679688</v>
       </c>
       <c r="M3">
-        <v>429.97360229492188</v>
+        <v>302.08969116210938</v>
       </c>
       <c r="N3">
-        <v>173.17962646484375</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1448.5855102539063</v>
+        <v>498.30245971679688</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -633,31 +633,43 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E6">
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
+      </c>
+      <c r="F6">
+        <v>0.03</v>
+      </c>
+      <c r="G6">
+        <v>0.03</v>
       </c>
       <c r="H6">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="I6">
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="J6">
         <v>0.109</v>
       </c>
       <c r="K6">
-        <v>0.11700000000000001</v>
+        <v>0.112</v>
       </c>
       <c r="L6">
-        <v>168.212890625</v>
+        <v>101.98974609375</v>
       </c>
       <c r="M6">
-        <v>168.212890625</v>
+        <v>101.98974609375</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>98.1903076171875</v>
+        <v>38.909912109375</v>
+      </c>
+      <c r="P6">
+        <v>101.98974609375</v>
       </c>
       <c r="Q6">
-        <v>906.1126708984375</v>
+        <v>846.832275390625</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -674,19 +686,31 @@
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="E7">
-        <v>6.3E-2</v>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="F7">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G7">
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="H7">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="I7">
-        <v>6.3E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="L7">
-        <v>615.48614501953125</v>
+        <v>465.81649780273438</v>
       </c>
       <c r="M7">
-        <v>615.48614501953125</v>
+        <v>465.81649780273438</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>465.81649780273438</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -714,19 +738,31 @@
         <v>3.9E-2</v>
       </c>
       <c r="E9">
-        <v>5.6000000000000001E-2</v>
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="F9">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="G9">
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="H9">
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="I9">
-        <v>5.6000000000000001E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="L9">
-        <v>1401.5579223632813</v>
+        <v>1061.9125366210938</v>
       </c>
       <c r="M9">
-        <v>1448.4405517578125</v>
+        <v>1108.795166015625</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>1061.9125366210938</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -743,31 +779,31 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="E10">
-        <v>5.6000000000000001E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="F10">
-        <v>5.8000000000000003E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="G10">
-        <v>6.3E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="H10">
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="I10">
-        <v>5.6000000000000001E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="L10">
-        <v>1938.9152526855471</v>
+        <v>1702.3468017578127</v>
       </c>
       <c r="M10">
-        <v>1938.9152526855471</v>
+        <v>1702.3468017578127</v>
       </c>
       <c r="N10">
-        <v>151.10651652018231</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>2154.1595458984375</v>
+        <v>1702.3468017578127</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -784,43 +820,43 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="E11">
-        <v>5.7000000000000002E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="F11">
-        <v>0.121</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="G11">
-        <v>0.126</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="H11">
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="I11">
-        <v>5.7000000000000002E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="J11">
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="K11">
-        <v>0.126</v>
+        <v>0.121</v>
       </c>
       <c r="L11">
-        <v>222.01919555664063</v>
+        <v>183.3648681640625</v>
       </c>
       <c r="M11">
-        <v>222.01919555664063</v>
+        <v>183.3648681640625</v>
       </c>
       <c r="N11">
-        <v>41.20635986328125</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>466.47262573242188</v>
+        <v>425.26626586914063</v>
       </c>
       <c r="P11">
-        <v>826.95388793945313</v>
+        <v>183.3648681640625</v>
       </c>
       <c r="Q11">
-        <v>826.95388793945313</v>
+        <v>785.74752807617188</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -837,31 +873,31 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="E12">
-        <v>0.128</v>
+        <v>0.123</v>
       </c>
       <c r="H12">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="I12">
-        <v>0.123</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="J12">
         <v>0.13900000000000001</v>
       </c>
       <c r="K12">
-        <v>0.14599999999999999</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="L12">
-        <v>6263.8282775878906</v>
+        <v>6190.277099609375</v>
       </c>
       <c r="M12">
-        <v>6165.435791015625</v>
+        <v>6064.1975402832031</v>
       </c>
       <c r="O12">
-        <v>143.2342529296875</v>
+        <v>43.521881103515625</v>
       </c>
       <c r="Q12">
-        <v>6581.9091796875</v>
+        <v>6482.1968078613281</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -878,19 +914,19 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="E13">
-        <v>5.3999999999999999E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="H13">
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="I13">
-        <v>5.5E-2</v>
+        <v>0.05</v>
       </c>
       <c r="L13">
-        <v>2664.3753051757813</v>
+        <v>2276.2985229492188</v>
       </c>
       <c r="M13">
-        <v>2725.3341674804688</v>
+        <v>2384.6664428710938</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -907,43 +943,43 @@
         <v>3.1E-2</v>
       </c>
       <c r="E14">
-        <v>5.8000000000000003E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="F14">
-        <v>9.6000000000000002E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="G14">
-        <v>0.10100000000000001</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="H14">
         <v>3.1E-2</v>
       </c>
       <c r="I14">
-        <v>5.8000000000000003E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="J14">
         <v>0.104</v>
       </c>
       <c r="K14">
-        <v>0.11799999999999999</v>
+        <v>0.113</v>
       </c>
       <c r="L14">
-        <v>3976.74560546875</v>
+        <v>3615.1237487792969</v>
       </c>
       <c r="M14">
-        <v>3976.74560546875</v>
+        <v>3615.1237487792969</v>
       </c>
       <c r="N14">
-        <v>390.0299072265625</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>1516.4680480957031</v>
+        <v>1122.6043701171875</v>
       </c>
       <c r="P14">
-        <v>5992.8131103515625</v>
+        <v>3615.1237487792969</v>
       </c>
       <c r="Q14">
-        <v>7666.9921875</v>
+        <v>7273.1285095214844</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -960,43 +996,43 @@
         <v>1.9E-2</v>
       </c>
       <c r="E15">
-        <v>2.9000000000000001E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="F15">
-        <v>3.1E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="G15">
-        <v>3.5999999999999997E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="H15">
         <v>1.9E-2</v>
       </c>
       <c r="I15">
-        <v>2.9000000000000001E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="J15">
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="K15">
-        <v>6.5000000000000002E-2</v>
+        <v>0.06</v>
       </c>
       <c r="L15">
-        <v>73.79913330078125</v>
+        <v>43.689727783203125</v>
       </c>
       <c r="M15">
-        <v>73.79913330078125</v>
+        <v>43.689727783203125</v>
       </c>
       <c r="N15">
-        <v>28.537750244140625</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>152.75955200195313</v>
+        <v>126.06048583984375</v>
       </c>
       <c r="P15">
-        <v>113.71612548828125</v>
+        <v>43.689727783203125</v>
       </c>
       <c r="Q15">
-        <v>334.29718017578125</v>
+        <v>307.59811401367188</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -1013,43 +1049,43 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="E16">
-        <v>8.1000000000000003E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="F16">
-        <v>0.14000000000000001</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="G16">
-        <v>0.14499999999999999</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="H16">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="I16">
-        <v>0.08</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="J16">
         <v>0.15</v>
       </c>
       <c r="K16">
-        <v>0.157</v>
+        <v>0.152</v>
       </c>
       <c r="L16">
-        <v>3398.0255126953125</v>
+        <v>3344.9020385742188</v>
       </c>
       <c r="M16">
-        <v>3391.1590576171875</v>
+        <v>3331.8252563476563</v>
       </c>
       <c r="N16">
-        <v>55.6488037109375</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>86.7767333984375</v>
+        <v>28.41949462890625</v>
       </c>
       <c r="P16">
-        <v>3849.4415283203125</v>
+        <v>3344.9020385742188</v>
       </c>
       <c r="Q16">
-        <v>3997.833251953125</v>
+        <v>3939.4760131835938</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -1066,31 +1102,31 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="E17">
-        <v>4.1000000000000002E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="F17">
-        <v>0.109</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="G17">
-        <v>0.114</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="H17">
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="I17">
-        <v>4.1000000000000002E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="L17">
-        <v>2516.4413452148438</v>
+        <v>2188.65966796875</v>
       </c>
       <c r="M17">
-        <v>2516.4413452148438</v>
+        <v>2188.65966796875</v>
       </c>
       <c r="N17">
-        <v>322.57080078125</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>3834.2361450195313</v>
+        <v>2188.65966796875</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -1107,43 +1143,43 @@
         <v>1.6E-2</v>
       </c>
       <c r="E18">
-        <v>8.5000000000000006E-2</v>
+        <v>0.08</v>
       </c>
       <c r="F18">
-        <v>0.108</v>
+        <v>0.08</v>
       </c>
       <c r="G18">
-        <v>0.113</v>
+        <v>0.08</v>
       </c>
       <c r="H18">
         <v>1.6E-2</v>
       </c>
       <c r="I18">
-        <v>8.5000000000000006E-2</v>
+        <v>0.08</v>
       </c>
       <c r="J18">
         <v>0.127</v>
       </c>
       <c r="K18">
-        <v>0.14099999999999999</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="L18">
-        <v>3252.8610229492188</v>
+        <v>3211.9064331054688</v>
       </c>
       <c r="M18">
-        <v>3252.8610229492188</v>
+        <v>3211.9064331054688</v>
       </c>
       <c r="N18">
-        <v>33.477783203125</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>154.327392578125</v>
+        <v>121.81854248046875</v>
       </c>
       <c r="P18">
-        <v>3414.3218994140625</v>
+        <v>3211.9064331054688</v>
       </c>
       <c r="Q18">
-        <v>3652.9083251953125</v>
+        <v>3620.3994750976563</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -1171,19 +1207,31 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="E20">
-        <v>4.3999999999999997E-2</v>
+        <v>3.9E-2</v>
+      </c>
+      <c r="F20">
+        <v>3.9E-2</v>
+      </c>
+      <c r="G20">
+        <v>3.9E-2</v>
       </c>
       <c r="H20">
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="I20">
-        <v>4.3999999999999997E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="L20">
-        <v>253.28826904296875</v>
+        <v>121.17767333984375</v>
       </c>
       <c r="M20">
-        <v>253.28826904296875</v>
+        <v>121.17767333984375</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>121.17767333984375</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -1200,31 +1248,31 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="E21">
-        <v>5.2999999999999999E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="F21">
-        <v>5.3999999999999999E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="G21">
-        <v>5.8999999999999997E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="H21">
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="I21">
-        <v>5.1999999999999998E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="L21">
-        <v>3234.0164184570313</v>
+        <v>2932.18994140625</v>
       </c>
       <c r="M21">
-        <v>3189.727783203125</v>
+        <v>2837.3031616210938</v>
       </c>
       <c r="N21">
-        <v>247.9400634765625</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>3530.9524536132813</v>
+        <v>2932.18994140625</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -1252,19 +1300,31 @@
         <v>3.1E-2</v>
       </c>
       <c r="E23">
-        <v>7.0000000000000007E-2</v>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F23">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="G23">
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="H23">
         <v>3.1E-2</v>
       </c>
       <c r="I23">
-        <v>6.9000000000000006E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="L23">
-        <v>3905.7388305664063</v>
+        <v>3773.895263671875</v>
       </c>
       <c r="M23">
-        <v>3889.7018432617188</v>
+        <v>3732.5210571289063</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>3773.895263671875</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -1281,19 +1341,31 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="E24">
-        <v>5.7000000000000002E-2</v>
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="F24">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="G24">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="H24">
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="I24">
-        <v>5.7000000000000002E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="L24">
-        <v>1124.3133544921875</v>
+        <v>931.58721923828125</v>
       </c>
       <c r="M24">
-        <v>424.72076416015625</v>
+        <v>231.99462890625</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>931.58721923828125</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -1310,31 +1382,31 @@
         <v>2.7E-2</v>
       </c>
       <c r="E25">
-        <v>3.7999999999999999E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="H25">
         <v>2.7E-2</v>
       </c>
       <c r="I25">
-        <v>3.7999999999999999E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="J25">
         <v>3.9E-2</v>
       </c>
       <c r="K25">
-        <v>0.06</v>
+        <v>5.5E-2</v>
       </c>
       <c r="L25">
-        <v>73.31085205078125</v>
+        <v>43.22052001953125</v>
       </c>
       <c r="M25">
-        <v>73.31085205078125</v>
+        <v>43.22052001953125</v>
       </c>
       <c r="O25">
-        <v>228.515625</v>
+        <v>195.7550048828125</v>
       </c>
       <c r="Q25">
-        <v>308.78448486328125</v>
+        <v>276.02386474609375</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -1351,19 +1423,31 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="E26">
-        <v>5.6000000000000001E-2</v>
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="F26">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="G26">
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="H26">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="I26">
-        <v>5.6000000000000001E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="L26">
-        <v>1520.8816528320313</v>
+        <v>1362.7243041992188</v>
       </c>
       <c r="M26">
-        <v>1520.8816528320313</v>
+        <v>1362.7243041992188</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>1362.7243041992188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -1380,19 +1464,19 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="E27">
-        <v>6.5000000000000002E-2</v>
+        <v>0.06</v>
       </c>
       <c r="H27">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="I27">
-        <v>6.6000000000000003E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="L27">
-        <v>2541.2216186523438</v>
+        <v>2300.1861572265625</v>
       </c>
       <c r="M27">
-        <v>2579.6127319335938</v>
+        <v>2347.2061157226563</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -1409,43 +1493,43 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E28">
-        <v>5.2999999999999999E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="F28">
-        <v>5.5E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="G28">
-        <v>0.06</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="H28">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="I28">
-        <v>5.2999999999999999E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="J28">
         <v>6.2E-2</v>
       </c>
       <c r="K28">
-        <v>7.0999999999999994E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="L28">
-        <v>4962.7914428710938</v>
+        <v>4629.4708251953125</v>
       </c>
       <c r="M28">
-        <v>4919.189453125</v>
+        <v>4585.8688354492188</v>
       </c>
       <c r="N28">
-        <v>142.93670654296875</v>
+        <v>0</v>
       </c>
       <c r="O28">
-        <v>445.03021240234375</v>
+        <v>237.213134765625</v>
       </c>
       <c r="P28">
-        <v>5184.0667724609375</v>
+        <v>4629.4708251953125</v>
       </c>
       <c r="Q28">
-        <v>5651.824951171875</v>
+        <v>5444.0078735351563</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -1462,31 +1546,31 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="E29">
-        <v>5.8000000000000003E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="F29">
-        <v>0.14099999999999999</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="G29">
-        <v>0.14899999999999999</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="H29">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="I29">
-        <v>5.6000000000000001E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="L29">
-        <v>1165.5378341674805</v>
+        <v>982.69462585449219</v>
       </c>
       <c r="M29">
-        <v>1112.7138137817383</v>
+        <v>902.68611907958984</v>
       </c>
       <c r="N29">
-        <v>288.848876953125</v>
+        <v>0</v>
       </c>
       <c r="P29">
-        <v>2259.4547271728516</v>
+        <v>982.69462585449219</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -1503,43 +1587,43 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="E30">
-        <v>5.0999999999999997E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="F30">
-        <v>9.1999999999999998E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="G30">
-        <v>9.7000000000000003E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="H30">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="I30">
-        <v>5.0999999999999997E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="J30">
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="K30">
-        <v>9.8000000000000004E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="L30">
-        <v>559.26513671875</v>
+        <v>523.79608154296875</v>
       </c>
       <c r="M30">
-        <v>559.26513671875</v>
+        <v>523.79608154296875</v>
       </c>
       <c r="N30">
-        <v>32.75299072265625</v>
+        <v>0</v>
       </c>
       <c r="O30">
-        <v>595.68023681640625</v>
+        <v>566.18499755859375</v>
       </c>
       <c r="P30">
-        <v>1155.426025390625</v>
+        <v>523.79608154296875</v>
       </c>
       <c r="Q30">
-        <v>1160.2401733398438</v>
+        <v>1130.7449340820313</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -1567,43 +1651,43 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="E32">
-        <v>4.3999999999999997E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="F32">
-        <v>0.127</v>
+        <v>3.9E-2</v>
       </c>
       <c r="G32">
-        <v>0.13200000000000001</v>
+        <v>3.9E-2</v>
       </c>
       <c r="H32">
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="I32">
-        <v>4.4999999999999998E-2</v>
+        <v>0.04</v>
       </c>
       <c r="J32">
         <v>0.121</v>
       </c>
       <c r="K32">
-        <v>0.13200000000000001</v>
+        <v>0.127</v>
       </c>
       <c r="L32">
-        <v>64.24713134765625</v>
+        <v>26.06201171875</v>
       </c>
       <c r="M32">
-        <v>70.03021240234375</v>
+        <v>35.2325439453125</v>
       </c>
       <c r="N32">
-        <v>41.5802001953125</v>
+        <v>0</v>
       </c>
       <c r="O32">
-        <v>94.61212158203125</v>
+        <v>53.03192138671875</v>
       </c>
       <c r="P32">
-        <v>460.35003662109375</v>
+        <v>26.06201171875</v>
       </c>
       <c r="Q32">
-        <v>460.35003662109375</v>
+        <v>418.76983642578125</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
@@ -1620,19 +1704,31 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="E33">
-        <v>4.3999999999999997E-2</v>
+        <v>3.9E-2</v>
+      </c>
+      <c r="F33">
+        <v>0.04</v>
+      </c>
+      <c r="G33">
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="H33">
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="I33">
-        <v>4.2999999999999997E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="L33">
-        <v>98.20556640625</v>
+        <v>63.28582763671875</v>
       </c>
       <c r="M33">
-        <v>92.09442138671875</v>
+        <v>56.34307861328125</v>
+      </c>
+      <c r="N33">
+        <v>7.3089599609375</v>
+      </c>
+      <c r="P33">
+        <v>77.239990234375</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
@@ -1649,19 +1745,31 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="E34">
-        <v>5.5E-2</v>
+        <v>0.05</v>
+      </c>
+      <c r="F34">
+        <v>0.05</v>
+      </c>
+      <c r="G34">
+        <v>0.05</v>
       </c>
       <c r="H34">
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="I34">
-        <v>5.5E-2</v>
+        <v>0.05</v>
       </c>
       <c r="L34">
-        <v>6295.654296875</v>
+        <v>5352.783203125</v>
       </c>
       <c r="M34">
-        <v>6295.654296875</v>
+        <v>5352.783203125</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>5352.783203125</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
@@ -1678,31 +1786,31 @@
         <v>0.04</v>
       </c>
       <c r="E35">
-        <v>5.5E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F35">
-        <v>0.158</v>
+        <v>0.05</v>
       </c>
       <c r="G35">
-        <v>0.16300000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="H35">
         <v>0.04</v>
       </c>
       <c r="I35">
-        <v>5.5E-2</v>
+        <v>0.05</v>
       </c>
       <c r="L35">
-        <v>2090.240478515625</v>
+        <v>1658.660888671875</v>
       </c>
       <c r="M35">
-        <v>2090.240478515625</v>
+        <v>1658.660888671875</v>
       </c>
       <c r="N35">
-        <v>415.68756103515625</v>
+        <v>0</v>
       </c>
       <c r="P35">
-        <v>5248.2223510742188</v>
+        <v>1658.660888671875</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
@@ -1719,19 +1827,31 @@
         <v>0.03</v>
       </c>
       <c r="E36">
-        <v>0.06</v>
+        <v>5.5E-2</v>
+      </c>
+      <c r="F36">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G36">
+        <v>5.5E-2</v>
       </c>
       <c r="H36">
         <v>0.03</v>
       </c>
       <c r="I36">
-        <v>6.3E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="L36">
-        <v>1339.6377563476563</v>
+        <v>1205.108642578125</v>
       </c>
       <c r="M36">
-        <v>1409.5840454101563</v>
+        <v>1303.6117553710938</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>1205.108642578125</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
@@ -1770,19 +1890,19 @@
         <v>3.9E-2</v>
       </c>
       <c r="E39">
-        <v>5.0999999999999997E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="H39">
         <v>3.9E-2</v>
       </c>
       <c r="I39">
-        <v>5.0999999999999997E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="L39">
-        <v>169.8760986328125</v>
+        <v>113.76190185546875</v>
       </c>
       <c r="M39">
-        <v>169.8760986328125</v>
+        <v>113.76190185546875</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
@@ -1799,19 +1919,31 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="E40">
-        <v>5.2999999999999999E-2</v>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="F40">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="G40">
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="H40">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="I40">
-        <v>5.2999999999999999E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="L40">
-        <v>3810.1882934570313</v>
+        <v>3570.5337524414063</v>
       </c>
       <c r="M40">
-        <v>3810.1882934570313</v>
+        <v>3570.5337524414063</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>3570.5337524414063</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
@@ -1828,19 +1960,31 @@
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="E41">
-        <v>7.2999999999999995E-2</v>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="F41">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="G41">
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="H41">
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="I41">
-        <v>7.3999999999999996E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="L41">
-        <v>6027.7252197265625</v>
+        <v>5845.1309204101563</v>
       </c>
       <c r="M41">
-        <v>6054.4586181640625</v>
+        <v>5887.9776000976563</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>5845.1309204101563</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
@@ -1857,19 +2001,19 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="E42">
-        <v>4.2999999999999997E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="H42">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="I42">
-        <v>4.5999999999999999E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="L42">
-        <v>1651.3748168945313</v>
+        <v>1376.2588500976563</v>
       </c>
       <c r="M42">
-        <v>1804.6112060546875</v>
+        <v>1554.4586181640625</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
@@ -1886,43 +2030,43 @@
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="E43">
-        <v>5.8999999999999997E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="F43">
-        <v>0.22700000000000001</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="G43">
-        <v>0.23200000000000001</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="H43">
         <v>0.04</v>
       </c>
       <c r="I43">
-        <v>5.8999999999999997E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="J43">
         <v>0.22600000000000001</v>
       </c>
       <c r="K43">
-        <v>0.23400000000000001</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="L43">
-        <v>2202.20947265625</v>
+        <v>1767.6162719726563</v>
       </c>
       <c r="M43">
-        <v>2288.848876953125</v>
+        <v>1854.2556762695313</v>
       </c>
       <c r="N43">
-        <v>473.94561767578125</v>
+        <v>0</v>
       </c>
       <c r="O43">
-        <v>705.9478759765625</v>
+        <v>347.7935791015625</v>
       </c>
       <c r="P43">
-        <v>8910.9268188476563</v>
+        <v>1767.6162719726563</v>
       </c>
       <c r="Q43">
-        <v>9118.0877685546875</v>
+        <v>8759.9334716796875</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
@@ -1939,43 +2083,43 @@
         <v>2.3E-2</v>
       </c>
       <c r="E44">
-        <v>4.2000000000000003E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="F44">
-        <v>7.4999999999999997E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="G44">
-        <v>8.2000000000000003E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="H44">
         <v>2.3E-2</v>
       </c>
       <c r="I44">
-        <v>4.2000000000000003E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="J44">
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="K44">
-        <v>8.5999999999999993E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L44">
-        <v>343.57452392578125</v>
+        <v>295.806884765625</v>
       </c>
       <c r="M44">
-        <v>343.57452392578125</v>
+        <v>295.806884765625</v>
       </c>
       <c r="N44">
-        <v>51.18560791015625</v>
+        <v>0</v>
       </c>
       <c r="O44">
-        <v>234.8480224609375</v>
+        <v>205.56640625</v>
       </c>
       <c r="P44">
-        <v>623.89373779296875</v>
+        <v>295.806884765625</v>
       </c>
       <c r="Q44">
-        <v>646.30889892578125</v>
+        <v>617.02728271484375</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
@@ -1992,43 +2136,43 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="E45">
-        <v>2.9000000000000001E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="F45">
-        <v>4.7E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="G45">
-        <v>5.1999999999999998E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="H45">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="I45">
-        <v>2.9000000000000001E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="J45">
         <v>0.03</v>
       </c>
       <c r="K45">
-        <v>5.1999999999999998E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="L45">
-        <v>198.02093505859375</v>
+        <v>151.9927978515625</v>
       </c>
       <c r="M45">
-        <v>208.6944580078125</v>
+        <v>162.66632080078125</v>
       </c>
       <c r="N45">
-        <v>39.63470458984375</v>
+        <v>0</v>
       </c>
       <c r="O45">
-        <v>559.7381591796875</v>
+        <v>520.10345458984375</v>
       </c>
       <c r="P45">
-        <v>765.84625244140625</v>
+        <v>151.9927978515625</v>
       </c>
       <c r="Q45">
-        <v>776.519775390625</v>
+        <v>736.88507080078125</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
@@ -2045,19 +2189,31 @@
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="E46">
-        <v>7.1999999999999995E-2</v>
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="F46">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="G46">
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="H46">
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="I46">
-        <v>7.1999999999999995E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="L46">
-        <v>2760.3530883789063</v>
+        <v>2706.756591796875</v>
       </c>
       <c r="M46">
-        <v>2760.3530883789063</v>
+        <v>2706.756591796875</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>2706.756591796875</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
@@ -2085,19 +2241,31 @@
         <v>6.2E-2</v>
       </c>
       <c r="E48">
-        <v>8.2000000000000003E-2</v>
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="F48">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="G48">
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="H48">
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="I48">
-        <v>8.5000000000000006E-2</v>
+        <v>0.08</v>
       </c>
       <c r="L48">
-        <v>129.96673583984375</v>
+        <v>101.32598876953125</v>
       </c>
       <c r="M48">
-        <v>152.01568603515625</v>
+        <v>125.51116943359375</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>101.32598876953125</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
@@ -2114,43 +2282,43 @@
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="E49">
-        <v>5.2999999999999999E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="F49">
         <v>6.2E-2</v>
       </c>
       <c r="G49">
-        <v>6.7000000000000004E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="H49">
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="I49">
-        <v>5.2999999999999999E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="J49">
         <v>5.5E-2</v>
       </c>
       <c r="K49">
-        <v>6.7000000000000004E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="L49">
-        <v>1383.9492797851563</v>
+        <v>1293.9300537109375</v>
       </c>
       <c r="M49">
-        <v>1383.9492797851563</v>
+        <v>1293.9300537109375</v>
       </c>
       <c r="N49">
-        <v>71.9146728515625</v>
+        <v>0</v>
       </c>
       <c r="O49">
-        <v>226.654052734375</v>
+        <v>154.7393798828125</v>
       </c>
       <c r="P49">
-        <v>1641.3803100585938</v>
+        <v>1569.4656372070313</v>
       </c>
       <c r="Q49">
-        <v>1641.3803100585938</v>
+        <v>1569.4656372070313</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
@@ -2178,19 +2346,31 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="E51">
-        <v>5.8999999999999997E-2</v>
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F51">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="G51">
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="H51">
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="I51">
-        <v>5.8999999999999997E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="L51">
-        <v>2098.3428955078125</v>
+        <v>1959.2666625976563</v>
       </c>
       <c r="M51">
-        <v>2098.3428955078125</v>
+        <v>1959.2666625976563</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>1959.2666625976563</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
@@ -2218,43 +2398,43 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E53">
-        <v>0.06</v>
+        <v>5.5E-2</v>
       </c>
       <c r="F53">
-        <v>6.4000000000000001E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="G53">
-        <v>6.9000000000000006E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="H53">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="I53">
-        <v>0.06</v>
+        <v>5.5E-2</v>
       </c>
       <c r="J53">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="K53">
-        <v>0.113</v>
+        <v>0.108</v>
       </c>
       <c r="L53">
-        <v>4297.2640991210938</v>
+        <v>4064.5904541015625</v>
       </c>
       <c r="M53">
-        <v>4297.2640991210938</v>
+        <v>4064.5904541015625</v>
       </c>
       <c r="N53">
-        <v>194.4732666015625</v>
+        <v>0</v>
       </c>
       <c r="O53">
-        <v>1724.67041015625</v>
+        <v>1485.9542846679688</v>
       </c>
       <c r="P53">
-        <v>4704.010009765625</v>
+        <v>4064.5904541015625</v>
       </c>
       <c r="Q53">
-        <v>6828.1097412109375</v>
+        <v>6589.3936157226563</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
@@ -2271,43 +2451,43 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="E54">
-        <v>5.3999999999999999E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="F54">
         <v>6.3E-2</v>
       </c>
       <c r="G54">
-        <v>6.8000000000000005E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="H54">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="I54">
-        <v>5.2999999999999999E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="J54">
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="K54">
-        <v>8.5000000000000006E-2</v>
+        <v>0.08</v>
       </c>
       <c r="L54">
-        <v>1537.65869140625</v>
+        <v>1488.7924194335938</v>
       </c>
       <c r="M54">
-        <v>1530.0827026367188</v>
+        <v>1468.1549072265625</v>
       </c>
       <c r="N54">
-        <v>39.61181640625</v>
+        <v>0</v>
       </c>
       <c r="O54">
-        <v>90.01922607421875</v>
+        <v>39.51263427734375</v>
       </c>
       <c r="P54">
-        <v>1641.448974609375</v>
+        <v>1601.837158203125</v>
       </c>
       <c r="Q54">
-        <v>1770.5764770507813</v>
+        <v>1720.0698852539063</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
@@ -2324,31 +2504,31 @@
         <v>3.9E-2</v>
       </c>
       <c r="E55">
-        <v>4.8000000000000001E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="F55">
-        <v>6.6000000000000003E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="G55">
-        <v>7.0999999999999994E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="H55">
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="I55">
-        <v>6.6000000000000003E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="L55">
-        <v>237.80059814453125</v>
+        <v>122.0703125</v>
       </c>
       <c r="M55">
-        <v>363.01422119140625</v>
+        <v>202.6519775390625</v>
       </c>
       <c r="N55">
-        <v>114.1510009765625</v>
+        <v>0</v>
       </c>
       <c r="P55">
-        <v>873.17657470703125</v>
+        <v>122.0703125</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
@@ -2365,43 +2545,43 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="E56">
-        <v>3.7999999999999999E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="F56">
-        <v>4.8000000000000001E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="G56">
-        <v>5.2999999999999999E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="H56">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="I56">
-        <v>3.7999999999999999E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="J56">
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="K56">
-        <v>5.2999999999999999E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="L56">
-        <v>107.18536376953125</v>
+        <v>74.615478515625</v>
       </c>
       <c r="M56">
-        <v>107.18536376953125</v>
+        <v>74.615478515625</v>
       </c>
       <c r="N56">
-        <v>28.839111328125</v>
+        <v>0</v>
       </c>
       <c r="O56">
-        <v>96.038818359375</v>
+        <v>67.19970703125</v>
       </c>
       <c r="P56">
-        <v>216.20941162109375</v>
+        <v>74.615478515625</v>
       </c>
       <c r="Q56">
-        <v>216.20941162109375</v>
+        <v>187.37030029296875</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">

--- a/Evan/Data_Method_4.xlsx
+++ b/Evan/Data_Method_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jg300416\Documents\MATLAB\DoD\Evan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B255A501-5D59-459B-8454-B9928D300E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073FC128-7196-4D08-8201-8F6E42409734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4155" yWindow="4155" windowWidth="21600" windowHeight="12735" xr2:uid="{DB4D1D40-A8DA-456B-A30C-81169D4C9387}"/>
   </bookViews>
@@ -517,43 +517,43 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="E2">
-        <v>2.4E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="F2">
-        <v>2.4E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="G2">
-        <v>2.4E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="H2">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="I2">
-        <v>2.4E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="J2">
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="K2">
-        <v>6.5000000000000002E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="L2">
-        <v>154.91485595000003</v>
+        <v>195.74737550000003</v>
       </c>
       <c r="M2">
-        <v>154.91485595000003</v>
+        <v>195.74737550000003</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>103.07693484999999</v>
       </c>
       <c r="O2">
-        <v>141.2467958</v>
+        <v>160.67886354999999</v>
       </c>
       <c r="P2">
-        <v>154.91485595000003</v>
+        <v>505.43213009999999</v>
       </c>
       <c r="Q2">
-        <v>486.00006235000001</v>
+        <v>505.43213009999999</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -570,31 +570,19 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="E3">
-        <v>0.05</v>
-      </c>
-      <c r="F3">
-        <v>0.05</v>
-      </c>
-      <c r="G3">
-        <v>0.05</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="H3">
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="I3">
-        <v>4.9000000000000002E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="L3">
-        <v>498.30245971679688</v>
+        <v>572.18551635742188</v>
       </c>
       <c r="M3">
-        <v>302.08969116210938</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>498.30245971679688</v>
+        <v>397.67074584960938</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -633,43 +621,31 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E6">
-        <v>0.03</v>
-      </c>
-      <c r="F6">
-        <v>0.03</v>
-      </c>
-      <c r="G6">
-        <v>0.03</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="H6">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="I6">
-        <v>0.03</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="J6">
         <v>0.109</v>
       </c>
       <c r="K6">
-        <v>0.112</v>
+        <v>0.114</v>
       </c>
       <c r="L6">
-        <v>101.98974609375</v>
+        <v>154.0069580078125</v>
       </c>
       <c r="M6">
-        <v>101.98974609375</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
+        <v>154.0069580078125</v>
       </c>
       <c r="O6">
-        <v>38.909912109375</v>
-      </c>
-      <c r="P6">
-        <v>101.98974609375</v>
+        <v>63.7969970703125</v>
       </c>
       <c r="Q6">
-        <v>846.832275390625</v>
+        <v>871.7193603515625</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -686,31 +662,19 @@
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="E7">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="F7">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="G7">
-        <v>5.8000000000000003E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="H7">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="I7">
-        <v>5.8000000000000003E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="L7">
-        <v>465.81649780273438</v>
+        <v>571.10977172851563</v>
       </c>
       <c r="M7">
-        <v>465.81649780273438</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>465.81649780273438</v>
+        <v>571.10977172851563</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -738,31 +702,19 @@
         <v>3.9E-2</v>
       </c>
       <c r="E9">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="F9">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="G9">
-        <v>5.0999999999999997E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="H9">
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="I9">
-        <v>5.0999999999999997E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="L9">
-        <v>1061.9125366210938</v>
+        <v>1333.9080810546875</v>
       </c>
       <c r="M9">
-        <v>1108.795166015625</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>1061.9125366210938</v>
+        <v>1380.7907104492188</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -779,31 +731,19 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="E10">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="F10">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="G10">
-        <v>5.0999999999999997E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="H10">
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="I10">
-        <v>5.0999999999999997E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="L10">
-        <v>1702.3468017578127</v>
+        <v>1900.2978006998701</v>
       </c>
       <c r="M10">
-        <v>1702.3468017578127</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>1702.3468017578127</v>
+        <v>1900.2978006998701</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -820,43 +760,43 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="E11">
-        <v>5.1999999999999998E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="F11">
-        <v>5.1999999999999998E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="G11">
-        <v>5.1999999999999998E-2</v>
+        <v>0.124</v>
       </c>
       <c r="H11">
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="I11">
-        <v>5.1999999999999998E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="J11">
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="K11">
-        <v>0.121</v>
+        <v>0.124</v>
       </c>
       <c r="L11">
-        <v>183.3648681640625</v>
+        <v>210.16693115234375</v>
       </c>
       <c r="M11">
-        <v>183.3648681640625</v>
+        <v>210.16693115234375</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>460.84976196289063</v>
       </c>
       <c r="O11">
-        <v>425.26626586914063</v>
+        <v>453.2928466796875</v>
       </c>
       <c r="P11">
-        <v>183.3648681640625</v>
+        <v>813.77410888671875</v>
       </c>
       <c r="Q11">
-        <v>785.74752807617188</v>
+        <v>813.77410888671875</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -873,31 +813,34 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="E12">
-        <v>0.123</v>
+        <v>0.125</v>
+      </c>
+      <c r="F12">
+        <v>0.13</v>
       </c>
       <c r="H12">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="I12">
-        <v>0.11799999999999999</v>
+        <v>0.121</v>
       </c>
       <c r="J12">
         <v>0.13900000000000001</v>
       </c>
       <c r="K12">
-        <v>0.14099999999999999</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="L12">
-        <v>6190.277099609375</v>
+        <v>6219.940185546875</v>
       </c>
       <c r="M12">
-        <v>6064.1975402832031</v>
+        <v>6134.4261169433594</v>
       </c>
       <c r="O12">
-        <v>43.521881103515625</v>
+        <v>104.75540161132813</v>
       </c>
       <c r="Q12">
-        <v>6482.1968078613281</v>
+        <v>6543.4303283691406</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -914,19 +857,19 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="E13">
-        <v>4.9000000000000002E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="H13">
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="I13">
-        <v>0.05</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="L13">
-        <v>2276.2985229492188</v>
+        <v>2463.2110595703125</v>
       </c>
       <c r="M13">
-        <v>2384.6664428710938</v>
+        <v>2463.2110595703125</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -943,43 +886,43 @@
         <v>3.1E-2</v>
       </c>
       <c r="E14">
-        <v>5.2999999999999999E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="F14">
-        <v>5.2999999999999999E-2</v>
+        <v>0.104</v>
       </c>
       <c r="G14">
-        <v>5.2999999999999999E-2</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="H14">
         <v>3.1E-2</v>
       </c>
       <c r="I14">
-        <v>5.2999999999999999E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="J14">
         <v>0.104</v>
       </c>
       <c r="K14">
-        <v>0.113</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="L14">
-        <v>3615.1237487792969</v>
+        <v>3880.0315856933594</v>
       </c>
       <c r="M14">
-        <v>3615.1237487792969</v>
+        <v>3880.0315856933594</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1516.4680480957031</v>
       </c>
       <c r="O14">
-        <v>1122.6043701171875</v>
+        <v>1516.4680480957031</v>
       </c>
       <c r="P14">
-        <v>3615.1237487792969</v>
+        <v>7666.9921875</v>
       </c>
       <c r="Q14">
-        <v>7273.1285095214844</v>
+        <v>7666.9921875</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -996,43 +939,43 @@
         <v>1.9E-2</v>
       </c>
       <c r="E15">
-        <v>2.4E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="F15">
-        <v>2.4E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="G15">
-        <v>2.4E-2</v>
+        <v>0.06</v>
       </c>
       <c r="H15">
         <v>1.9E-2</v>
       </c>
       <c r="I15">
-        <v>2.4E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="J15">
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="K15">
-        <v>0.06</v>
+        <v>6.2E-2</v>
       </c>
       <c r="L15">
-        <v>43.689727783203125</v>
+        <v>67.081451416015625</v>
       </c>
       <c r="M15">
-        <v>43.689727783203125</v>
+        <v>67.081451416015625</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>126.06048583984375</v>
       </c>
       <c r="O15">
-        <v>126.06048583984375</v>
+        <v>137.31765747070313</v>
       </c>
       <c r="P15">
-        <v>43.689727783203125</v>
+        <v>307.59811401367188</v>
       </c>
       <c r="Q15">
-        <v>307.59811401367188</v>
+        <v>318.85528564453125</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -1049,43 +992,43 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="E16">
-        <v>7.5999999999999998E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="F16">
-        <v>7.5999999999999998E-2</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="G16">
-        <v>7.5999999999999998E-2</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="H16">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="I16">
-        <v>7.4999999999999997E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="J16">
         <v>0.15</v>
       </c>
       <c r="K16">
-        <v>0.152</v>
+        <v>0.155</v>
       </c>
       <c r="L16">
-        <v>3344.9020385742188</v>
+        <v>3382.4539184570313</v>
       </c>
       <c r="M16">
-        <v>3331.8252563476563</v>
+        <v>3371.8414306640625</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>72.68524169921875</v>
       </c>
       <c r="O16">
-        <v>28.41949462890625</v>
+        <v>65.8111572265625</v>
       </c>
       <c r="P16">
-        <v>3344.9020385742188</v>
+        <v>3831.23779296875</v>
       </c>
       <c r="Q16">
-        <v>3939.4760131835938</v>
+        <v>3976.86767578125</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -1102,31 +1045,19 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="E17">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="F17">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="G17">
-        <v>3.5999999999999997E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="H17">
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="I17">
-        <v>3.5999999999999997E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="L17">
-        <v>2188.65966796875</v>
+        <v>2429.5578002929688</v>
       </c>
       <c r="M17">
-        <v>2188.65966796875</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>2188.65966796875</v>
+        <v>2429.5578002929688</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -1143,43 +1074,43 @@
         <v>1.6E-2</v>
       </c>
       <c r="E18">
-        <v>0.08</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="F18">
-        <v>0.08</v>
+        <v>0.105</v>
       </c>
       <c r="G18">
-        <v>0.08</v>
+        <v>0.111</v>
       </c>
       <c r="H18">
         <v>1.6E-2</v>
       </c>
       <c r="I18">
-        <v>0.08</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="J18">
         <v>0.127</v>
       </c>
       <c r="K18">
-        <v>0.13600000000000001</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="L18">
-        <v>3211.9064331054688</v>
+        <v>3245.17822265625</v>
       </c>
       <c r="M18">
-        <v>3211.9064331054688</v>
+        <v>3245.17822265625</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>50.14801025390625</v>
       </c>
       <c r="O18">
-        <v>121.81854248046875</v>
+        <v>149.00970458984375</v>
       </c>
       <c r="P18">
-        <v>3211.9064331054688</v>
+        <v>3406.0287475585938</v>
       </c>
       <c r="Q18">
-        <v>3620.3994750976563</v>
+        <v>3647.5906372070313</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -1207,31 +1138,19 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="E20">
-        <v>3.9E-2</v>
-      </c>
-      <c r="F20">
-        <v>3.9E-2</v>
-      </c>
-      <c r="G20">
-        <v>3.9E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="H20">
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="I20">
-        <v>3.9E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="L20">
-        <v>121.17767333984375</v>
+        <v>214.9658203125</v>
       </c>
       <c r="M20">
-        <v>121.17767333984375</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>121.17767333984375</v>
+        <v>214.9658203125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -1248,31 +1167,31 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="E21">
-        <v>4.8000000000000001E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="F21">
-        <v>4.8000000000000001E-2</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="G21">
-        <v>4.8000000000000001E-2</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="H21">
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="I21">
-        <v>4.7E-2</v>
+        <v>0.05</v>
       </c>
       <c r="L21">
-        <v>2932.18994140625</v>
+        <v>3148.040771484375</v>
       </c>
       <c r="M21">
-        <v>2837.3031616210938</v>
+        <v>3098.0606079101563</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>747.52044677734375</v>
       </c>
       <c r="P21">
-        <v>2932.18994140625</v>
+        <v>7521.0342407226563</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -1300,31 +1219,19 @@
         <v>3.1E-2</v>
       </c>
       <c r="E23">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F23">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="G23">
-        <v>6.5000000000000002E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="H23">
         <v>3.1E-2</v>
       </c>
       <c r="I23">
-        <v>6.4000000000000001E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="L23">
-        <v>3773.895263671875</v>
+        <v>3870.6436157226563</v>
       </c>
       <c r="M23">
-        <v>3732.5210571289063</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>3773.895263671875</v>
+        <v>3845.8786010742188</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -1341,31 +1248,19 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="E24">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="F24">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="G24">
-        <v>5.1999999999999998E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="H24">
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="I24">
-        <v>5.1999999999999998E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="L24">
-        <v>931.58721923828125</v>
+        <v>1082.6034545898438</v>
       </c>
       <c r="M24">
-        <v>231.99462890625</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>931.58721923828125</v>
+        <v>383.0108642578125</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -1382,31 +1277,19 @@
         <v>2.7E-2</v>
       </c>
       <c r="E25">
-        <v>3.3000000000000002E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="H25">
         <v>2.7E-2</v>
       </c>
       <c r="I25">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="J25">
-        <v>3.9E-2</v>
-      </c>
-      <c r="K25">
-        <v>5.5E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="L25">
-        <v>43.22052001953125</v>
+        <v>290.85540771484375</v>
       </c>
       <c r="M25">
-        <v>43.22052001953125</v>
-      </c>
-      <c r="O25">
-        <v>195.7550048828125</v>
-      </c>
-      <c r="Q25">
-        <v>276.02386474609375</v>
+        <v>290.85540771484375</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -1423,31 +1306,31 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="E26">
-        <v>5.0999999999999997E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="F26">
-        <v>5.0999999999999997E-2</v>
+        <v>0.222</v>
       </c>
       <c r="G26">
-        <v>5.0999999999999997E-2</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="H26">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="I26">
-        <v>5.0999999999999997E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="L26">
-        <v>1362.7243041992188</v>
+        <v>1475.067138671875</v>
       </c>
       <c r="M26">
-        <v>1362.7243041992188</v>
+        <v>1475.067138671875</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>321.08306884765625</v>
       </c>
       <c r="P26">
-        <v>1362.7243041992188</v>
+        <v>3544.43359375</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -1464,19 +1347,19 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="E27">
-        <v>0.06</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="H27">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="I27">
-        <v>6.0999999999999999E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="L27">
-        <v>2300.1861572265625</v>
+        <v>2347.2061157226563</v>
       </c>
       <c r="M27">
-        <v>2347.2061157226563</v>
+        <v>2504.2572021484375</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -1493,43 +1376,43 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E28">
-        <v>4.8000000000000001E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="F28">
-        <v>4.8000000000000001E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="G28">
-        <v>4.8000000000000001E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="H28">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="I28">
-        <v>4.8000000000000001E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="J28">
         <v>6.2E-2</v>
       </c>
       <c r="K28">
-        <v>6.6000000000000003E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="L28">
-        <v>4629.4708251953125</v>
+        <v>4911.6744995117188</v>
       </c>
       <c r="M28">
-        <v>4585.8688354492188</v>
+        <v>4868.072509765625</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>383.72039794921875</v>
       </c>
       <c r="O28">
-        <v>237.213134765625</v>
+        <v>383.72039794921875</v>
       </c>
       <c r="P28">
-        <v>4629.4708251953125</v>
+        <v>5634.1171264648438</v>
       </c>
       <c r="Q28">
-        <v>5444.0078735351563</v>
+        <v>5590.51513671875</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -1546,31 +1429,19 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="E29">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="F29">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="G29">
-        <v>5.2999999999999999E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="H29">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="I29">
-        <v>5.0999999999999997E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="L29">
-        <v>982.69462585449219</v>
+        <v>1112.7138137817383</v>
       </c>
       <c r="M29">
-        <v>902.68611907958984</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <v>982.69462585449219</v>
+        <v>938.75885009765625</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -1587,43 +1458,43 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="E30">
-        <v>4.5999999999999999E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="F30">
-        <v>4.5999999999999999E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="G30">
-        <v>4.5999999999999999E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="H30">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="I30">
-        <v>4.5999999999999999E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="J30">
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="K30">
-        <v>9.2999999999999999E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="L30">
-        <v>523.79608154296875</v>
+        <v>553.1463623046875</v>
       </c>
       <c r="M30">
-        <v>523.79608154296875</v>
+        <v>553.1463623046875</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>571.0601806640625</v>
       </c>
       <c r="O30">
-        <v>566.18499755859375</v>
+        <v>579.52117919921875</v>
       </c>
       <c r="P30">
-        <v>523.79608154296875</v>
+        <v>1144.0811157226563</v>
       </c>
       <c r="Q30">
-        <v>1130.7449340820313</v>
+        <v>1144.0811157226563</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -1651,43 +1522,43 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="E32">
-        <v>3.9E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F32">
-        <v>3.9E-2</v>
+        <v>0.121</v>
       </c>
       <c r="G32">
-        <v>3.9E-2</v>
+        <v>0.13</v>
       </c>
       <c r="H32">
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="I32">
-        <v>0.04</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="J32">
         <v>0.121</v>
       </c>
       <c r="K32">
-        <v>0.127</v>
+        <v>0.13</v>
       </c>
       <c r="L32">
-        <v>26.06201171875</v>
+        <v>51.85699462890625</v>
       </c>
       <c r="M32">
-        <v>35.2325439453125</v>
+        <v>58.50982666015625</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>81.47430419921875</v>
       </c>
       <c r="O32">
-        <v>53.03192138671875</v>
+        <v>81.47430419921875</v>
       </c>
       <c r="P32">
-        <v>26.06201171875</v>
+        <v>447.21221923828125</v>
       </c>
       <c r="Q32">
-        <v>418.76983642578125</v>
+        <v>447.21221923828125</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
@@ -1704,31 +1575,19 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="E33">
-        <v>3.9E-2</v>
-      </c>
-      <c r="F33">
-        <v>0.04</v>
-      </c>
-      <c r="G33">
-        <v>4.1000000000000002E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="H33">
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="I33">
-        <v>3.7999999999999999E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="L33">
+        <v>92.09442138671875</v>
+      </c>
+      <c r="M33">
         <v>63.28582763671875</v>
-      </c>
-      <c r="M33">
-        <v>56.34307861328125</v>
-      </c>
-      <c r="N33">
-        <v>7.3089599609375</v>
-      </c>
-      <c r="P33">
-        <v>77.239990234375</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
@@ -1745,31 +1604,19 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="E34">
-        <v>0.05</v>
-      </c>
-      <c r="F34">
-        <v>0.05</v>
-      </c>
-      <c r="G34">
-        <v>0.05</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="H34">
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="I34">
-        <v>0.05</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="L34">
-        <v>5352.783203125</v>
+        <v>6103.5079956054688</v>
       </c>
       <c r="M34">
-        <v>5352.783203125</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="P34">
-        <v>5352.783203125</v>
+        <v>6103.5079956054688</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
@@ -1786,31 +1633,19 @@
         <v>0.04</v>
       </c>
       <c r="E35">
-        <v>0.05</v>
-      </c>
-      <c r="F35">
-        <v>0.05</v>
-      </c>
-      <c r="G35">
-        <v>0.05</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="H35">
         <v>0.04</v>
       </c>
       <c r="I35">
-        <v>0.05</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="L35">
-        <v>1658.660888671875</v>
+        <v>1977.5161743164063</v>
       </c>
       <c r="M35">
-        <v>1658.660888671875</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <v>1658.660888671875</v>
+        <v>1977.5161743164063</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
@@ -1827,31 +1662,19 @@
         <v>0.03</v>
       </c>
       <c r="E36">
-        <v>5.5E-2</v>
-      </c>
-      <c r="F36">
-        <v>5.5E-2</v>
-      </c>
-      <c r="G36">
-        <v>5.5E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="H36">
         <v>0.03</v>
       </c>
       <c r="I36">
-        <v>5.8000000000000003E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="L36">
-        <v>1205.108642578125</v>
+        <v>1303.6117553710938</v>
       </c>
       <c r="M36">
-        <v>1303.6117553710938</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="P36">
-        <v>1205.108642578125</v>
+        <v>1409.5840454101563</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
@@ -1890,19 +1713,19 @@
         <v>3.9E-2</v>
       </c>
       <c r="E39">
-        <v>4.5999999999999999E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="H39">
         <v>3.9E-2</v>
       </c>
       <c r="I39">
-        <v>4.5999999999999999E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="L39">
-        <v>113.76190185546875</v>
+        <v>169.8760986328125</v>
       </c>
       <c r="M39">
-        <v>113.76190185546875</v>
+        <v>169.8760986328125</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
@@ -1919,31 +1742,19 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="E40">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="F40">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="G40">
-        <v>4.8000000000000001E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="H40">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="I40">
-        <v>4.8000000000000001E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="L40">
-        <v>3570.5337524414063</v>
+        <v>3780.5404663085938</v>
       </c>
       <c r="M40">
-        <v>3570.5337524414063</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-      <c r="P40">
-        <v>3570.5337524414063</v>
+        <v>3780.5404663085938</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
@@ -1960,31 +1771,19 @@
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="E41">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="F41">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="G41">
-        <v>6.8000000000000005E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="H41">
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="I41">
-        <v>6.9000000000000006E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="L41">
-        <v>5845.1309204101563</v>
+        <v>5965.576171875</v>
       </c>
       <c r="M41">
-        <v>5887.9776000976563</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="P41">
-        <v>5845.1309204101563</v>
+        <v>5998.3673095703125</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
@@ -2001,19 +1800,19 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="E42">
-        <v>3.7999999999999999E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="H42">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="I42">
-        <v>4.1000000000000002E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="L42">
-        <v>1376.2588500976563</v>
+        <v>1437.2100830078125</v>
       </c>
       <c r="M42">
-        <v>1554.4586181640625</v>
+        <v>1608.4136962890625</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
@@ -2030,43 +1829,31 @@
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="E43">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="F43">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="G43">
-        <v>5.3999999999999999E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="H43">
         <v>0.04</v>
       </c>
       <c r="I43">
-        <v>5.3999999999999999E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="J43">
         <v>0.22600000000000001</v>
       </c>
       <c r="K43">
-        <v>0.22900000000000001</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="L43">
-        <v>1767.6162719726563</v>
+        <v>2086.0977172851563</v>
       </c>
       <c r="M43">
-        <v>1854.2556762695313</v>
-      </c>
-      <c r="N43">
-        <v>0</v>
+        <v>2172.7371215820313</v>
       </c>
       <c r="O43">
-        <v>347.7935791015625</v>
-      </c>
-      <c r="P43">
-        <v>1767.6162719726563</v>
+        <v>585.42633056640625</v>
       </c>
       <c r="Q43">
-        <v>8759.9334716796875</v>
+        <v>8997.5662231445313</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
@@ -2083,43 +1870,43 @@
         <v>2.3E-2</v>
       </c>
       <c r="E44">
-        <v>3.6999999999999998E-2</v>
+        <v>0.04</v>
       </c>
       <c r="F44">
-        <v>3.6999999999999998E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="G44">
-        <v>3.6999999999999998E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="H44">
         <v>2.3E-2</v>
       </c>
       <c r="I44">
-        <v>3.6999999999999998E-2</v>
+        <v>0.04</v>
       </c>
       <c r="J44">
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="K44">
-        <v>8.1000000000000003E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="L44">
-        <v>295.806884765625</v>
+        <v>336.9293212890625</v>
       </c>
       <c r="M44">
-        <v>295.806884765625</v>
+        <v>336.9293212890625</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>184.71527099609375</v>
       </c>
       <c r="O44">
-        <v>205.56640625</v>
+        <v>224.884033203125</v>
       </c>
       <c r="P44">
-        <v>295.806884765625</v>
+        <v>596.1761474609375</v>
       </c>
       <c r="Q44">
-        <v>617.02728271484375</v>
+        <v>636.34490966796875</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
@@ -2136,43 +1923,43 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="E45">
-        <v>2.4E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="F45">
-        <v>2.4E-2</v>
+        <v>0.03</v>
       </c>
       <c r="G45">
-        <v>2.4E-2</v>
+        <v>0.05</v>
       </c>
       <c r="H45">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="I45">
-        <v>2.4E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="J45">
         <v>0.03</v>
       </c>
       <c r="K45">
-        <v>4.7E-2</v>
+        <v>0.05</v>
       </c>
       <c r="L45">
-        <v>151.9927978515625</v>
+        <v>189.02587890625</v>
       </c>
       <c r="M45">
-        <v>162.66632080078125</v>
+        <v>199.69940185546875</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>552.80303955078125</v>
       </c>
       <c r="O45">
-        <v>520.10345458984375</v>
+        <v>552.80303955078125</v>
       </c>
       <c r="P45">
-        <v>151.9927978515625</v>
+        <v>758.9111328125</v>
       </c>
       <c r="Q45">
-        <v>736.88507080078125</v>
+        <v>769.58465576171875</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
@@ -2189,31 +1976,19 @@
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="E46">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="F46">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="G46">
-        <v>6.7000000000000004E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H46">
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="I46">
-        <v>6.7000000000000004E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="L46">
-        <v>2706.756591796875</v>
+        <v>2745.2621459960938</v>
       </c>
       <c r="M46">
-        <v>2706.756591796875</v>
-      </c>
-      <c r="N46">
-        <v>0</v>
-      </c>
-      <c r="P46">
-        <v>2706.756591796875</v>
+        <v>2745.2621459960938</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
@@ -2241,31 +2016,19 @@
         <v>6.2E-2</v>
       </c>
       <c r="E48">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="F48">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="G48">
-        <v>7.6999999999999999E-2</v>
+        <v>0.08</v>
       </c>
       <c r="H48">
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="I48">
-        <v>0.08</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L48">
-        <v>101.32598876953125</v>
+        <v>119.293212890625</v>
       </c>
       <c r="M48">
-        <v>125.51116943359375</v>
-      </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
-      <c r="P48">
-        <v>101.32598876953125</v>
+        <v>136.1846923828125</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
@@ -2282,43 +2045,43 @@
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="E49">
-        <v>4.8000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F49">
-        <v>6.2E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="G49">
-        <v>6.2E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="H49">
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="I49">
-        <v>4.8000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J49">
         <v>5.5E-2</v>
       </c>
       <c r="K49">
-        <v>6.2E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="L49">
-        <v>1293.9300537109375</v>
+        <v>1338.3560180664063</v>
       </c>
       <c r="M49">
-        <v>1293.9300537109375</v>
+        <v>1338.3560180664063</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>222.35870361328125</v>
       </c>
       <c r="O49">
-        <v>154.7393798828125</v>
+        <v>205.57403564453125</v>
       </c>
       <c r="P49">
-        <v>1569.4656372070313</v>
+        <v>1620.30029296875</v>
       </c>
       <c r="Q49">
-        <v>1569.4656372070313</v>
+        <v>1620.30029296875</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
@@ -2346,31 +2109,19 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="E51">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="F51">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="G51">
-        <v>5.3999999999999999E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="H51">
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="I51">
-        <v>5.3999999999999999E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="L51">
-        <v>1959.2666625976563</v>
+        <v>2057.6248168945313</v>
       </c>
       <c r="M51">
-        <v>1959.2666625976563</v>
-      </c>
-      <c r="N51">
-        <v>0</v>
-      </c>
-      <c r="P51">
-        <v>1959.2666625976563</v>
+        <v>2057.6248168945313</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
@@ -2398,43 +2149,43 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E53">
-        <v>5.5E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="F53">
-        <v>5.5E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="G53">
-        <v>5.5E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="H53">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="I53">
-        <v>5.5E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="J53">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="K53">
-        <v>0.108</v>
+        <v>0.111</v>
       </c>
       <c r="L53">
-        <v>4064.5904541015625</v>
+        <v>4233.2305908203125</v>
       </c>
       <c r="M53">
-        <v>4064.5904541015625</v>
+        <v>4233.2305908203125</v>
       </c>
       <c r="N53">
-        <v>0</v>
+        <v>308.4259033203125</v>
       </c>
       <c r="O53">
-        <v>1485.9542846679688</v>
+        <v>1646.1257934570313</v>
       </c>
       <c r="P53">
-        <v>4064.5904541015625</v>
+        <v>4657.5241088867188</v>
       </c>
       <c r="Q53">
-        <v>6589.3936157226563</v>
+        <v>6749.5651245117188</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
@@ -2451,43 +2202,43 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="E54">
-        <v>4.9000000000000002E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="F54">
-        <v>6.3E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="G54">
-        <v>6.3E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="H54">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="I54">
-        <v>4.8000000000000001E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="J54">
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="K54">
-        <v>0.08</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="L54">
-        <v>1488.7924194335938</v>
+        <v>1513.2064819335938</v>
       </c>
       <c r="M54">
-        <v>1468.1549072265625</v>
+        <v>1513.2064819335938</v>
       </c>
       <c r="N54">
-        <v>0</v>
+        <v>101.287841796875</v>
       </c>
       <c r="O54">
-        <v>39.51263427734375</v>
+        <v>73.58551025390625</v>
       </c>
       <c r="P54">
-        <v>1601.837158203125</v>
+        <v>1770.5764770507813</v>
       </c>
       <c r="Q54">
-        <v>1720.0698852539063</v>
+        <v>1754.1427612304688</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
@@ -2504,31 +2255,31 @@
         <v>3.9E-2</v>
       </c>
       <c r="E55">
-        <v>4.2999999999999997E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="F55">
-        <v>4.2999999999999997E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="G55">
-        <v>4.2999999999999997E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="H55">
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="I55">
-        <v>6.0999999999999999E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="L55">
-        <v>122.0703125</v>
+        <v>214.17236328125</v>
       </c>
       <c r="M55">
-        <v>202.6519775390625</v>
+        <v>309.53216552734375</v>
       </c>
       <c r="N55">
-        <v>0</v>
+        <v>499.83978271484375</v>
       </c>
       <c r="P55">
-        <v>122.0703125</v>
+        <v>834.5947265625</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
@@ -2545,43 +2296,43 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="E56">
-        <v>3.3000000000000002E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="F56">
-        <v>3.3000000000000002E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="G56">
-        <v>3.3000000000000002E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="H56">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="I56">
-        <v>3.3000000000000002E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="J56">
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="K56">
-        <v>4.8000000000000001E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="L56">
-        <v>74.615478515625</v>
+        <v>100.30364990234375</v>
       </c>
       <c r="M56">
-        <v>74.615478515625</v>
+        <v>100.30364990234375</v>
       </c>
       <c r="N56">
-        <v>0</v>
+        <v>88.60015869140625</v>
       </c>
       <c r="O56">
-        <v>67.19970703125</v>
+        <v>88.60015869140625</v>
       </c>
       <c r="P56">
-        <v>74.615478515625</v>
+        <v>208.770751953125</v>
       </c>
       <c r="Q56">
-        <v>187.37030029296875</v>
+        <v>208.770751953125</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">

--- a/Evan/Data_Method_4.xlsx
+++ b/Evan/Data_Method_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jg300416\Documents\MATLAB\DoD\Evan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073FC128-7196-4D08-8201-8F6E42409734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6B920A-4EB3-4FC3-A03F-D891737A850A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4155" yWindow="4155" windowWidth="21600" windowHeight="12735" xr2:uid="{DB4D1D40-A8DA-456B-A30C-81169D4C9387}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>p</t>
   </si>
@@ -85,6 +85,78 @@
   </si>
   <si>
     <t>SD_AUC3</t>
+  </si>
+  <si>
+    <t>MCD_Onset3</t>
+  </si>
+  <si>
+    <t>MCD_Offset3</t>
+  </si>
+  <si>
+    <t>MCD_Onset4</t>
+  </si>
+  <si>
+    <t>MCD_Offset4</t>
+  </si>
+  <si>
+    <t>MCD_Onset5</t>
+  </si>
+  <si>
+    <t>MCD_Offset5</t>
+  </si>
+  <si>
+    <t>SD_Onset3</t>
+  </si>
+  <si>
+    <t>SD_Offset3</t>
+  </si>
+  <si>
+    <t>SD_Onset4</t>
+  </si>
+  <si>
+    <t>SD_Offset4</t>
+  </si>
+  <si>
+    <t>SD_Onset5</t>
+  </si>
+  <si>
+    <t>SD_Offset5</t>
+  </si>
+  <si>
+    <t>MCD_AUC1_2</t>
+  </si>
+  <si>
+    <t>SD_AUC1_2</t>
+  </si>
+  <si>
+    <t>MCD_AUC2_3</t>
+  </si>
+  <si>
+    <t>SD_AUC2_3</t>
+  </si>
+  <si>
+    <t>MCD_AUC4</t>
+  </si>
+  <si>
+    <t>SD_AUC4</t>
+  </si>
+  <si>
+    <t>MCD_AUC3_4</t>
+  </si>
+  <si>
+    <t>SD_AUC3_4</t>
+  </si>
+  <si>
+    <t>MCD_AUC5</t>
+  </si>
+  <si>
+    <t>SD_AUC5</t>
+  </si>
+  <si>
+    <t>MCD_AUC4_5</t>
+  </si>
+  <si>
+    <t>SD_AUC4_5</t>
   </si>
 </sst>
 </file>
@@ -442,15 +514,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17343D4B-F7EF-4F82-9097-15B56B1F5001}">
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:AO58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:Q58"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AO2" sqref="AO2:AO58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="23" width="10.85546875" customWidth="1"/>
+    <col min="24" max="24" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.28515625" customWidth="1"/>
+    <col min="29" max="29" width="12.140625" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" customWidth="1"/>
+    <col min="31" max="31" width="10.5703125" customWidth="1"/>
+    <col min="32" max="32" width="13" customWidth="1"/>
+    <col min="33" max="33" width="14" customWidth="1"/>
+    <col min="34" max="34" width="12.5703125" customWidth="1"/>
+    <col min="35" max="35" width="11.28515625" customWidth="1"/>
+    <col min="36" max="36" width="14.5703125" customWidth="1"/>
+    <col min="37" max="37" width="13.85546875" customWidth="1"/>
+    <col min="38" max="38" width="12.5703125" customWidth="1"/>
+    <col min="39" max="39" width="11.7109375" customWidth="1"/>
+    <col min="40" max="40" width="14.5703125" customWidth="1"/>
+    <col min="41" max="41" width="12.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -473,37 +578,109 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="P1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Q1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Y1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Z1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="AA1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="AB1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="AE1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
@@ -526,37 +703,49 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="H2">
+        <v>0.219</v>
+      </c>
+      <c r="N2">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="I2">
+      <c r="O2">
         <v>2.7E-2</v>
       </c>
-      <c r="J2">
+      <c r="P2">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="K2">
+      <c r="Q2">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="L2">
+      <c r="R2">
+        <v>0.218</v>
+      </c>
+      <c r="X2">
         <v>195.74737550000003</v>
       </c>
-      <c r="M2">
+      <c r="Y2">
         <v>195.74737550000003</v>
       </c>
-      <c r="N2">
+      <c r="Z2">
         <v>103.07693484999999</v>
       </c>
-      <c r="O2">
+      <c r="AA2">
         <v>160.67886354999999</v>
       </c>
-      <c r="P2">
-        <v>505.43213009999999</v>
-      </c>
-      <c r="Q2">
-        <v>505.43213009999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="AB2">
+        <v>206.60781975</v>
+      </c>
+      <c r="AC2">
+        <v>149.00589105</v>
+      </c>
+      <c r="AF2">
+        <v>913.9213570500001</v>
+      </c>
+      <c r="AG2">
+        <v>904.59823695</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>11</v>
       </c>
@@ -572,20 +761,20 @@
       <c r="E3">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="H3">
+      <c r="N3">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="I3">
+      <c r="O3">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="L3">
+      <c r="X3">
         <v>572.18551635742188</v>
       </c>
-      <c r="M3">
+      <c r="Y3">
         <v>397.67074584960938</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>12</v>
       </c>
@@ -596,7 +785,7 @@
         <v>73.878200000000007</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>13</v>
       </c>
@@ -607,7 +796,7 @@
         <v>65.048100000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>14</v>
       </c>
@@ -623,32 +812,32 @@
       <c r="E6">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="H6">
+      <c r="N6">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="I6">
+      <c r="O6">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="J6">
+      <c r="P6">
         <v>0.109</v>
       </c>
-      <c r="K6">
+      <c r="Q6">
         <v>0.114</v>
       </c>
-      <c r="L6">
+      <c r="X6">
         <v>154.0069580078125</v>
       </c>
-      <c r="M6">
+      <c r="Y6">
         <v>154.0069580078125</v>
       </c>
-      <c r="O6">
+      <c r="AA6">
         <v>63.7969970703125</v>
       </c>
-      <c r="Q6">
-        <v>871.7193603515625</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="AC6">
+        <v>653.9154052734375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>15</v>
       </c>
@@ -664,20 +853,20 @@
       <c r="E7">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="H7">
+      <c r="N7">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="I7">
+      <c r="O7">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="L7">
+      <c r="X7">
         <v>571.10977172851563</v>
       </c>
-      <c r="M7">
+      <c r="Y7">
         <v>571.10977172851563</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>16</v>
       </c>
@@ -688,7 +877,7 @@
         <v>10.7691</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>17</v>
       </c>
@@ -704,20 +893,20 @@
       <c r="E9">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="H9">
+      <c r="N9">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="I9">
+      <c r="O9">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="L9">
+      <c r="X9">
         <v>1333.9080810546875</v>
       </c>
-      <c r="M9">
+      <c r="Y9">
         <v>1380.7907104492188</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>18</v>
       </c>
@@ -733,20 +922,20 @@
       <c r="E10">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="H10">
+      <c r="N10">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="I10">
+      <c r="O10">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="L10">
+      <c r="X10">
         <v>1900.2978006998701</v>
       </c>
-      <c r="M10">
+      <c r="Y10">
         <v>1900.2978006998701</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>19</v>
       </c>
@@ -769,37 +958,73 @@
         <v>0.124</v>
       </c>
       <c r="H11">
+        <v>0.186</v>
+      </c>
+      <c r="I11">
+        <v>0.192</v>
+      </c>
+      <c r="J11">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="K11">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="N11">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="I11">
+      <c r="O11">
         <v>5.5E-2</v>
       </c>
-      <c r="J11">
+      <c r="P11">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="K11">
+      <c r="Q11">
         <v>0.124</v>
       </c>
-      <c r="L11">
+      <c r="R11">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="S11">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="X11">
         <v>210.16693115234375</v>
       </c>
-      <c r="M11">
+      <c r="Y11">
         <v>210.16693115234375</v>
       </c>
-      <c r="N11">
+      <c r="Z11">
         <v>460.84976196289063</v>
       </c>
-      <c r="O11">
+      <c r="AA11">
         <v>453.2928466796875</v>
       </c>
-      <c r="P11">
-        <v>813.77410888671875</v>
-      </c>
-      <c r="Q11">
-        <v>813.77410888671875</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="AB11">
+        <v>142.75741577148438</v>
+      </c>
+      <c r="AC11">
+        <v>150.3143310546875</v>
+      </c>
+      <c r="AD11">
+        <v>48.48480224609375</v>
+      </c>
+      <c r="AE11">
+        <v>68.820953369140625</v>
+      </c>
+      <c r="AF11">
+        <v>363.44146728515625</v>
+      </c>
+      <c r="AG11">
+        <v>626.52206420898438</v>
+      </c>
+      <c r="AH11">
+        <v>68.820953369140625</v>
+      </c>
+      <c r="AJ11">
+        <v>214.59579467773438</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>20</v>
       </c>
@@ -818,32 +1043,65 @@
       <c r="F12">
         <v>0.13</v>
       </c>
-      <c r="H12">
+      <c r="N12">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="I12">
+      <c r="O12">
         <v>0.121</v>
       </c>
-      <c r="J12">
+      <c r="P12">
         <v>0.13900000000000001</v>
       </c>
-      <c r="K12">
+      <c r="Q12">
         <v>0.14399999999999999</v>
       </c>
-      <c r="L12">
+      <c r="R12">
+        <v>0.155</v>
+      </c>
+      <c r="S12">
+        <v>0.161</v>
+      </c>
+      <c r="T12">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="U12">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="V12">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="X12">
         <v>6219.940185546875</v>
       </c>
-      <c r="M12">
+      <c r="Y12">
         <v>6134.4261169433594</v>
       </c>
-      <c r="O12">
+      <c r="AA12">
         <v>104.75540161132813</v>
       </c>
-      <c r="Q12">
-        <v>6543.4303283691406</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="AB12">
+        <v>74.176788330078125</v>
+      </c>
+      <c r="AC12">
+        <v>304.24880981445313</v>
+      </c>
+      <c r="AE12">
+        <v>148.03695678710938</v>
+      </c>
+      <c r="AG12">
+        <v>213.73748779296875</v>
+      </c>
+      <c r="AI12">
+        <v>3497.9705810546875</v>
+      </c>
+      <c r="AK12">
+        <v>56.52618408203125</v>
+      </c>
+      <c r="AO12">
+        <v>54.37469482421875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>21</v>
       </c>
@@ -859,20 +1117,20 @@
       <c r="E13">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="H13">
+      <c r="N13">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="I13">
+      <c r="O13">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="L13">
+      <c r="X13">
         <v>2463.2110595703125</v>
       </c>
-      <c r="M13">
+      <c r="Y13">
         <v>2463.2110595703125</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>22</v>
       </c>
@@ -894,38 +1152,38 @@
       <c r="G14">
         <v>0.11799999999999999</v>
       </c>
-      <c r="H14">
+      <c r="N14">
         <v>3.1E-2</v>
       </c>
-      <c r="I14">
+      <c r="O14">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="J14">
+      <c r="P14">
         <v>0.104</v>
       </c>
-      <c r="K14">
+      <c r="Q14">
         <v>0.11799999999999999</v>
       </c>
-      <c r="L14">
+      <c r="X14">
         <v>3880.0315856933594</v>
       </c>
-      <c r="M14">
+      <c r="Y14">
         <v>3880.0315856933594</v>
       </c>
-      <c r="N14">
+      <c r="Z14">
         <v>1516.4680480957031</v>
       </c>
-      <c r="O14">
+      <c r="AA14">
         <v>1516.4680480957031</v>
       </c>
-      <c r="P14">
-        <v>7666.9921875</v>
-      </c>
-      <c r="Q14">
-        <v>7666.9921875</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="AB14">
+        <v>2270.4925537109375</v>
+      </c>
+      <c r="AC14">
+        <v>2270.4925537109375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>23</v>
       </c>
@@ -947,38 +1205,38 @@
       <c r="G15">
         <v>0.06</v>
       </c>
-      <c r="H15">
+      <c r="N15">
         <v>1.9E-2</v>
       </c>
-      <c r="I15">
+      <c r="O15">
         <v>2.7E-2</v>
       </c>
-      <c r="J15">
+      <c r="P15">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="K15">
+      <c r="Q15">
         <v>6.2E-2</v>
       </c>
-      <c r="L15">
+      <c r="X15">
         <v>67.081451416015625</v>
       </c>
-      <c r="M15">
+      <c r="Y15">
         <v>67.081451416015625</v>
       </c>
-      <c r="N15">
+      <c r="Z15">
         <v>126.06048583984375</v>
       </c>
-      <c r="O15">
+      <c r="AA15">
         <v>137.31765747070313</v>
       </c>
-      <c r="P15">
-        <v>307.59811401367188</v>
-      </c>
-      <c r="Q15">
-        <v>318.85528564453125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="AB15">
+        <v>114.4561767578125</v>
+      </c>
+      <c r="AC15">
+        <v>114.4561767578125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>24</v>
       </c>
@@ -1001,37 +1259,85 @@
         <v>0.14299999999999999</v>
       </c>
       <c r="H16">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="J16">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="K16">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="L16">
+        <v>0.187</v>
+      </c>
+      <c r="M16">
+        <v>0.192</v>
+      </c>
+      <c r="N16">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="I16">
+      <c r="O16">
         <v>7.8E-2</v>
       </c>
-      <c r="J16">
+      <c r="P16">
         <v>0.15</v>
       </c>
-      <c r="K16">
+      <c r="Q16">
         <v>0.155</v>
       </c>
-      <c r="L16">
+      <c r="R16">
+        <v>0.16</v>
+      </c>
+      <c r="S16">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="X16">
         <v>3382.4539184570313</v>
       </c>
-      <c r="M16">
+      <c r="Y16">
         <v>3371.8414306640625</v>
       </c>
-      <c r="N16">
+      <c r="Z16">
         <v>72.68524169921875</v>
       </c>
-      <c r="O16">
+      <c r="AA16">
         <v>65.8111572265625</v>
       </c>
-      <c r="P16">
-        <v>3831.23779296875</v>
-      </c>
-      <c r="Q16">
-        <v>3976.86767578125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="AB16">
+        <v>376.0986328125</v>
+      </c>
+      <c r="AC16">
+        <v>539.215087890625</v>
+      </c>
+      <c r="AD16">
+        <v>278.40423583984375</v>
+      </c>
+      <c r="AE16">
+        <v>63.16375732421875</v>
+      </c>
+      <c r="AF16">
+        <v>29.9224853515625</v>
+      </c>
+      <c r="AG16">
+        <v>55.13763427734375</v>
+      </c>
+      <c r="AH16">
+        <v>83.43505859375</v>
+      </c>
+      <c r="AJ16">
+        <v>32.03582763671875</v>
+      </c>
+      <c r="AL16">
+        <v>75.17242431640625</v>
+      </c>
+      <c r="AN16">
+        <v>77.7587890625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>25</v>
       </c>
@@ -1047,20 +1353,20 @@
       <c r="E17">
         <v>3.9E-2</v>
       </c>
-      <c r="H17">
+      <c r="N17">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="I17">
+      <c r="O17">
         <v>3.9E-2</v>
       </c>
-      <c r="L17">
+      <c r="X17">
         <v>2429.5578002929688</v>
       </c>
-      <c r="M17">
+      <c r="Y17">
         <v>2429.5578002929688</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>26</v>
       </c>
@@ -1083,37 +1389,49 @@
         <v>0.111</v>
       </c>
       <c r="H18">
+        <v>0.127</v>
+      </c>
+      <c r="I18">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="N18">
         <v>1.6E-2</v>
       </c>
-      <c r="I18">
+      <c r="O18">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="J18">
+      <c r="P18">
         <v>0.127</v>
       </c>
-      <c r="K18">
+      <c r="Q18">
         <v>0.13900000000000001</v>
       </c>
-      <c r="L18">
+      <c r="X18">
         <v>3245.17822265625</v>
       </c>
-      <c r="M18">
+      <c r="Y18">
         <v>3245.17822265625</v>
       </c>
-      <c r="N18">
+      <c r="Z18">
         <v>50.14801025390625</v>
       </c>
-      <c r="O18">
+      <c r="AA18">
         <v>149.00970458984375</v>
       </c>
-      <c r="P18">
-        <v>3406.0287475585938</v>
-      </c>
-      <c r="Q18">
-        <v>3647.5906372070313</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="AB18">
+        <v>110.7025146484375</v>
+      </c>
+      <c r="AC18">
+        <v>253.4027099609375</v>
+      </c>
+      <c r="AD18">
+        <v>149.00970458984375</v>
+      </c>
+      <c r="AF18">
+        <v>92.55218505859375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>27</v>
       </c>
@@ -1124,7 +1442,7 @@
         <v>291.50850000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>28</v>
       </c>
@@ -1140,20 +1458,20 @@
       <c r="E20">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="H20">
+      <c r="N20">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="I20">
+      <c r="O20">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="L20">
+      <c r="X20">
         <v>214.9658203125</v>
       </c>
-      <c r="M20">
+      <c r="Y20">
         <v>214.9658203125</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>29</v>
       </c>
@@ -1175,26 +1493,26 @@
       <c r="G21">
         <v>0.24199999999999999</v>
       </c>
-      <c r="H21">
+      <c r="N21">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="I21">
+      <c r="O21">
         <v>0.05</v>
       </c>
-      <c r="L21">
+      <c r="X21">
         <v>3148.040771484375</v>
       </c>
-      <c r="M21">
+      <c r="Y21">
         <v>3098.0606079101563</v>
       </c>
-      <c r="N21">
+      <c r="Z21">
         <v>747.52044677734375</v>
       </c>
-      <c r="P21">
-        <v>7521.0342407226563</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="AB21">
+        <v>3625.4730224609375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>30</v>
       </c>
@@ -1205,7 +1523,7 @@
         <v>6.0216000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>31</v>
       </c>
@@ -1221,20 +1539,20 @@
       <c r="E23">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="H23">
+      <c r="N23">
         <v>3.1E-2</v>
       </c>
-      <c r="I23">
+      <c r="O23">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="L23">
+      <c r="X23">
         <v>3870.6436157226563</v>
       </c>
-      <c r="M23">
+      <c r="Y23">
         <v>3845.8786010742188</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>35</v>
       </c>
@@ -1250,20 +1568,20 @@
       <c r="E24">
         <v>5.5E-2</v>
       </c>
-      <c r="H24">
+      <c r="N24">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="I24">
+      <c r="O24">
         <v>5.5E-2</v>
       </c>
-      <c r="L24">
+      <c r="X24">
         <v>1082.6034545898438</v>
       </c>
-      <c r="M24">
+      <c r="Y24">
         <v>383.0108642578125</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>36</v>
       </c>
@@ -1279,20 +1597,20 @@
       <c r="E25">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="H25">
+      <c r="N25">
         <v>2.7E-2</v>
       </c>
-      <c r="I25">
+      <c r="O25">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="L25">
+      <c r="X25">
         <v>290.85540771484375</v>
       </c>
-      <c r="M25">
+      <c r="Y25">
         <v>290.85540771484375</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>37</v>
       </c>
@@ -1315,25 +1633,31 @@
         <v>0.22700000000000001</v>
       </c>
       <c r="H26">
+        <v>0.245</v>
+      </c>
+      <c r="N26">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="I26">
+      <c r="O26">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="L26">
+      <c r="X26">
         <v>1475.067138671875</v>
       </c>
-      <c r="M26">
+      <c r="Y26">
         <v>1475.067138671875</v>
       </c>
-      <c r="N26">
+      <c r="Z26">
         <v>321.08306884765625</v>
       </c>
-      <c r="P26">
-        <v>3544.43359375</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="AB26">
+        <v>1748.2833862304688</v>
+      </c>
+      <c r="AF26">
+        <v>487.55645751953125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>38</v>
       </c>
@@ -1349,20 +1673,20 @@
       <c r="E27">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="H27">
+      <c r="N27">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="I27">
+      <c r="O27">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="L27">
+      <c r="X27">
         <v>2347.2061157226563</v>
       </c>
-      <c r="M27">
+      <c r="Y27">
         <v>2504.2572021484375</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>39</v>
       </c>
@@ -1384,38 +1708,38 @@
       <c r="G28">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="H28">
+      <c r="N28">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="I28">
+      <c r="O28">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="J28">
+      <c r="P28">
         <v>6.2E-2</v>
       </c>
-      <c r="K28">
+      <c r="Q28">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="L28">
+      <c r="X28">
         <v>4911.6744995117188</v>
       </c>
-      <c r="M28">
+      <c r="Y28">
         <v>4868.072509765625</v>
       </c>
-      <c r="N28">
+      <c r="Z28">
         <v>383.72039794921875</v>
       </c>
-      <c r="O28">
+      <c r="AA28">
         <v>383.72039794921875</v>
       </c>
-      <c r="P28">
-        <v>5634.1171264648438</v>
-      </c>
-      <c r="Q28">
-        <v>5590.51513671875</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="AB28">
+        <v>338.72222900390625</v>
+      </c>
+      <c r="AC28">
+        <v>338.72222900390625</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>40</v>
       </c>
@@ -1431,20 +1755,20 @@
       <c r="E29">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="H29">
+      <c r="N29">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="I29">
+      <c r="O29">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="L29">
+      <c r="X29">
         <v>1112.7138137817383</v>
       </c>
-      <c r="M29">
+      <c r="Y29">
         <v>938.75885009765625</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>41</v>
       </c>
@@ -1466,38 +1790,38 @@
       <c r="G30">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="H30">
+      <c r="N30">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="I30">
+      <c r="O30">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="J30">
+      <c r="P30">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="K30">
+      <c r="Q30">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="L30">
+      <c r="X30">
         <v>553.1463623046875</v>
       </c>
-      <c r="M30">
+      <c r="Y30">
         <v>553.1463623046875</v>
       </c>
-      <c r="N30">
+      <c r="Z30">
         <v>571.0601806640625</v>
       </c>
-      <c r="O30">
+      <c r="AA30">
         <v>579.52117919921875</v>
       </c>
-      <c r="P30">
-        <v>1144.0811157226563</v>
-      </c>
-      <c r="Q30">
-        <v>1144.0811157226563</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="AB30">
+        <v>19.87457275390625</v>
+      </c>
+      <c r="AC30">
+        <v>11.41357421875</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>42</v>
       </c>
@@ -1508,7 +1832,7 @@
         <v>130.35910000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>43</v>
       </c>
@@ -1531,37 +1855,61 @@
         <v>0.13</v>
       </c>
       <c r="H32">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="I32">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="N32">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="I32">
+      <c r="O32">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="J32">
+      <c r="P32">
         <v>0.121</v>
       </c>
-      <c r="K32">
+      <c r="Q32">
         <v>0.13</v>
       </c>
-      <c r="L32">
+      <c r="R32">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="S32">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="X32">
         <v>51.85699462890625</v>
       </c>
-      <c r="M32">
+      <c r="Y32">
         <v>58.50982666015625</v>
       </c>
-      <c r="N32">
+      <c r="Z32">
         <v>81.47430419921875</v>
       </c>
-      <c r="O32">
+      <c r="AA32">
         <v>81.47430419921875</v>
       </c>
-      <c r="P32">
-        <v>447.21221923828125</v>
-      </c>
-      <c r="Q32">
-        <v>447.21221923828125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="AB32">
+        <v>313.88092041015625</v>
+      </c>
+      <c r="AC32">
+        <v>307.22808837890625</v>
+      </c>
+      <c r="AD32">
+        <v>65.887451171875</v>
+      </c>
+      <c r="AE32">
+        <v>73.43292236328125</v>
+      </c>
+      <c r="AF32">
+        <v>65.78826904296875</v>
+      </c>
+      <c r="AG32">
+        <v>58.2427978515625</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>44</v>
       </c>
@@ -1577,20 +1925,20 @@
       <c r="E33">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="H33">
+      <c r="N33">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="I33">
+      <c r="O33">
         <v>3.9E-2</v>
       </c>
-      <c r="L33">
+      <c r="X33">
         <v>92.09442138671875</v>
       </c>
-      <c r="M33">
+      <c r="Y33">
         <v>63.28582763671875</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>45</v>
       </c>
@@ -1606,20 +1954,20 @@
       <c r="E34">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="H34">
+      <c r="N34">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="I34">
+      <c r="O34">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="L34">
+      <c r="X34">
         <v>6103.5079956054688</v>
       </c>
-      <c r="M34">
+      <c r="Y34">
         <v>6103.5079956054688</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>48</v>
       </c>
@@ -1635,20 +1983,20 @@
       <c r="E35">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="H35">
+      <c r="N35">
         <v>0.04</v>
       </c>
-      <c r="I35">
+      <c r="O35">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="L35">
+      <c r="X35">
         <v>1977.5161743164063</v>
       </c>
-      <c r="M35">
+      <c r="Y35">
         <v>1977.5161743164063</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>49</v>
       </c>
@@ -1664,20 +2012,20 @@
       <c r="E36">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="H36">
+      <c r="N36">
         <v>0.03</v>
       </c>
-      <c r="I36">
+      <c r="O36">
         <v>6.3E-2</v>
       </c>
-      <c r="L36">
+      <c r="X36">
         <v>1303.6117553710938</v>
       </c>
-      <c r="M36">
+      <c r="Y36">
         <v>1409.5840454101563</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>50</v>
       </c>
@@ -1688,7 +2036,7 @@
         <v>15.164999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>51</v>
       </c>
@@ -1699,7 +2047,7 @@
         <v>8.3980999999999995</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>52</v>
       </c>
@@ -1715,20 +2063,20 @@
       <c r="E39">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="H39">
+      <c r="N39">
         <v>3.9E-2</v>
       </c>
-      <c r="I39">
+      <c r="O39">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="L39">
+      <c r="X39">
         <v>169.8760986328125</v>
       </c>
-      <c r="M39">
+      <c r="Y39">
         <v>169.8760986328125</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>53</v>
       </c>
@@ -1744,20 +2092,20 @@
       <c r="E40">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="H40">
+      <c r="N40">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="I40">
+      <c r="O40">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="L40">
+      <c r="X40">
         <v>3780.5404663085938</v>
       </c>
-      <c r="M40">
+      <c r="Y40">
         <v>3780.5404663085938</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>54</v>
       </c>
@@ -1773,20 +2121,20 @@
       <c r="E41">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="H41">
+      <c r="N41">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="I41">
+      <c r="O41">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="L41">
+      <c r="X41">
         <v>5965.576171875</v>
       </c>
-      <c r="M41">
+      <c r="Y41">
         <v>5998.3673095703125</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>55</v>
       </c>
@@ -1802,20 +2150,20 @@
       <c r="E42">
         <v>3.9E-2</v>
       </c>
-      <c r="H42">
+      <c r="N42">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="I42">
+      <c r="O42">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="L42">
+      <c r="X42">
         <v>1437.2100830078125</v>
       </c>
-      <c r="M42">
+      <c r="Y42">
         <v>1608.4136962890625</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>56</v>
       </c>
@@ -1831,32 +2179,32 @@
       <c r="E43">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="H43">
+      <c r="N43">
         <v>0.04</v>
       </c>
-      <c r="I43">
+      <c r="O43">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="J43">
+      <c r="P43">
         <v>0.22600000000000001</v>
       </c>
-      <c r="K43">
+      <c r="Q43">
         <v>0.23200000000000001</v>
       </c>
-      <c r="L43">
+      <c r="X43">
         <v>2086.0977172851563</v>
       </c>
-      <c r="M43">
+      <c r="Y43">
         <v>2172.7371215820313</v>
       </c>
-      <c r="O43">
+      <c r="AA43">
         <v>585.42633056640625</v>
       </c>
-      <c r="Q43">
-        <v>8997.5662231445313</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="AC43">
+        <v>6239.4027709960938</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>59</v>
       </c>
@@ -1879,37 +2227,61 @@
         <v>7.8E-2</v>
       </c>
       <c r="H44">
+        <v>0.161</v>
+      </c>
+      <c r="I44">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="N44">
         <v>2.3E-2</v>
       </c>
-      <c r="I44">
+      <c r="O44">
         <v>0.04</v>
       </c>
-      <c r="J44">
+      <c r="P44">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="K44">
+      <c r="Q44">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="L44">
+      <c r="R44">
+        <v>0.161</v>
+      </c>
+      <c r="S44">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="X44">
         <v>336.9293212890625</v>
       </c>
-      <c r="M44">
+      <c r="Y44">
         <v>336.9293212890625</v>
       </c>
-      <c r="N44">
+      <c r="Z44">
         <v>184.71527099609375</v>
       </c>
-      <c r="O44">
+      <c r="AA44">
         <v>224.884033203125</v>
       </c>
-      <c r="P44">
-        <v>596.1761474609375</v>
-      </c>
-      <c r="Q44">
-        <v>636.34490966796875</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="AB44">
+        <v>74.53155517578125</v>
+      </c>
+      <c r="AC44">
+        <v>74.53155517578125</v>
+      </c>
+      <c r="AD44">
+        <v>54.77142333984375</v>
+      </c>
+      <c r="AE44">
+        <v>61.11907958984375</v>
+      </c>
+      <c r="AF44">
+        <v>362.152099609375</v>
+      </c>
+      <c r="AG44">
+        <v>321.98333740234375</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>60</v>
       </c>
@@ -1931,38 +2303,50 @@
       <c r="G45">
         <v>0.05</v>
       </c>
-      <c r="H45">
+      <c r="N45">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="I45">
+      <c r="O45">
         <v>2.7E-2</v>
       </c>
-      <c r="J45">
+      <c r="P45">
         <v>0.03</v>
       </c>
-      <c r="K45">
+      <c r="Q45">
         <v>0.05</v>
       </c>
-      <c r="L45">
+      <c r="R45">
+        <v>5.5E-2</v>
+      </c>
+      <c r="S45">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="X45">
         <v>189.02587890625</v>
       </c>
-      <c r="M45">
+      <c r="Y45">
         <v>199.69940185546875</v>
       </c>
-      <c r="N45">
+      <c r="Z45">
         <v>552.80303955078125</v>
       </c>
-      <c r="O45">
+      <c r="AA45">
         <v>552.80303955078125</v>
       </c>
-      <c r="P45">
-        <v>758.9111328125</v>
-      </c>
-      <c r="Q45">
-        <v>769.58465576171875</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="AB45">
+        <v>17.08221435546875</v>
+      </c>
+      <c r="AC45">
+        <v>17.08221435546875</v>
+      </c>
+      <c r="AE45">
+        <v>89.30206298828125</v>
+      </c>
+      <c r="AG45">
+        <v>23.193359375</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>61</v>
       </c>
@@ -1978,20 +2362,20 @@
       <c r="E46">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H46">
+      <c r="N46">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="I46">
+      <c r="O46">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="L46">
+      <c r="X46">
         <v>2745.2621459960938</v>
       </c>
-      <c r="M46">
+      <c r="Y46">
         <v>2745.2621459960938</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>62</v>
       </c>
@@ -2002,7 +2386,7 @@
         <v>19.648700000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>63</v>
       </c>
@@ -2018,20 +2402,20 @@
       <c r="E48">
         <v>0.08</v>
       </c>
-      <c r="H48">
+      <c r="N48">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="I48">
+      <c r="O48">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="L48">
+      <c r="X48">
         <v>119.293212890625</v>
       </c>
-      <c r="M48">
+      <c r="Y48">
         <v>136.1846923828125</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>64</v>
       </c>
@@ -2053,38 +2437,38 @@
       <c r="G49">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="H49">
+      <c r="N49">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="I49">
+      <c r="O49">
         <v>0.05</v>
       </c>
-      <c r="J49">
+      <c r="P49">
         <v>5.5E-2</v>
       </c>
-      <c r="K49">
+      <c r="Q49">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="L49">
+      <c r="X49">
         <v>1338.3560180664063</v>
       </c>
-      <c r="M49">
+      <c r="Y49">
         <v>1338.3560180664063</v>
       </c>
-      <c r="N49">
+      <c r="Z49">
         <v>222.35870361328125</v>
       </c>
-      <c r="O49">
+      <c r="AA49">
         <v>205.57403564453125</v>
       </c>
-      <c r="P49">
-        <v>1620.30029296875</v>
-      </c>
-      <c r="Q49">
-        <v>1620.30029296875</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="AB49">
+        <v>59.5855712890625</v>
+      </c>
+      <c r="AC49">
+        <v>76.3702392578125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>65</v>
       </c>
@@ -2095,7 +2479,7 @@
         <v>76.096800000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>67</v>
       </c>
@@ -2111,20 +2495,20 @@
       <c r="E51">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="H51">
+      <c r="N51">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="I51">
+      <c r="O51">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="L51">
+      <c r="X51">
         <v>2057.6248168945313</v>
       </c>
-      <c r="M51">
+      <c r="Y51">
         <v>2057.6248168945313</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>68</v>
       </c>
@@ -2135,7 +2519,7 @@
         <v>6.1219000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>72</v>
       </c>
@@ -2158,37 +2542,61 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="H53">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="I53">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="N53">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="I53">
+      <c r="O53">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="J53">
+      <c r="P53">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="K53">
+      <c r="Q53">
         <v>0.111</v>
       </c>
-      <c r="L53">
+      <c r="R53">
+        <v>0.115</v>
+      </c>
+      <c r="S53">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="X53">
         <v>4233.2305908203125</v>
       </c>
-      <c r="M53">
+      <c r="Y53">
         <v>4233.2305908203125</v>
       </c>
-      <c r="N53">
+      <c r="Z53">
         <v>308.4259033203125</v>
       </c>
-      <c r="O53">
+      <c r="AA53">
         <v>1646.1257934570313</v>
       </c>
-      <c r="P53">
-        <v>4657.5241088867188</v>
-      </c>
-      <c r="Q53">
-        <v>6749.5651245117188</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="AB53">
+        <v>115.86761474609375</v>
+      </c>
+      <c r="AC53">
+        <v>870.208740234375</v>
+      </c>
+      <c r="AD53">
+        <v>7027.2674560546875</v>
+      </c>
+      <c r="AE53">
+        <v>5039.9856567382813</v>
+      </c>
+      <c r="AF53">
+        <v>317.6116943359375</v>
+      </c>
+      <c r="AG53">
+        <v>179.45098876953125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>75</v>
       </c>
@@ -2210,38 +2618,38 @@
       <c r="G54">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="H54">
+      <c r="N54">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="I54">
+      <c r="O54">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="J54">
+      <c r="P54">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="K54">
+      <c r="Q54">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="L54">
+      <c r="X54">
         <v>1513.2064819335938</v>
       </c>
-      <c r="M54">
+      <c r="Y54">
         <v>1513.2064819335938</v>
       </c>
-      <c r="N54">
+      <c r="Z54">
         <v>101.287841796875</v>
       </c>
-      <c r="O54">
+      <c r="AA54">
         <v>73.58551025390625</v>
       </c>
-      <c r="P54">
-        <v>1770.5764770507813</v>
-      </c>
-      <c r="Q54">
-        <v>1754.1427612304688</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="AB54">
+        <v>156.0821533203125</v>
+      </c>
+      <c r="AC54">
+        <v>167.35076904296875</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>77</v>
       </c>
@@ -2264,25 +2672,37 @@
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="H55">
+        <v>0.13</v>
+      </c>
+      <c r="I55">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="N55">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="I55">
+      <c r="O55">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="L55">
+      <c r="X55">
         <v>214.17236328125</v>
       </c>
-      <c r="M55">
+      <c r="Y55">
         <v>309.53216552734375</v>
       </c>
-      <c r="N55">
+      <c r="Z55">
         <v>499.83978271484375</v>
       </c>
-      <c r="P55">
-        <v>834.5947265625</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="AB55">
+        <v>120.58258056640625</v>
+      </c>
+      <c r="AD55">
+        <v>350.067138671875</v>
+      </c>
+      <c r="AF55">
+        <v>832.8094482421875</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>78</v>
       </c>
@@ -2305,37 +2725,61 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="H56">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="I56">
+        <v>0.113</v>
+      </c>
+      <c r="N56">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="I56">
+      <c r="O56">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="J56">
+      <c r="P56">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="K56">
+      <c r="Q56">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="L56">
+      <c r="R56">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="S56">
+        <v>0.113</v>
+      </c>
+      <c r="X56">
         <v>100.30364990234375</v>
       </c>
-      <c r="M56">
+      <c r="Y56">
         <v>100.30364990234375</v>
       </c>
-      <c r="N56">
+      <c r="Z56">
         <v>88.60015869140625</v>
       </c>
-      <c r="O56">
+      <c r="AA56">
         <v>88.60015869140625</v>
       </c>
-      <c r="P56">
-        <v>208.770751953125</v>
-      </c>
-      <c r="Q56">
-        <v>208.770751953125</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="AB56">
+        <v>19.866943359375</v>
+      </c>
+      <c r="AC56">
+        <v>19.866943359375</v>
+      </c>
+      <c r="AD56">
+        <v>249.07684326171875</v>
+      </c>
+      <c r="AE56">
+        <v>249.07684326171875</v>
+      </c>
+      <c r="AF56">
+        <v>169.7998046875</v>
+      </c>
+      <c r="AG56">
+        <v>169.7998046875</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>79</v>
       </c>
@@ -2346,7 +2790,7 @@
         <v>5.5084999999999997</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>80</v>
       </c>
